--- a/Documents/ろうきんAML_管理ツール設定20250707.xlsx
+++ b/Documents/ろうきんAML_管理ツール設定20250707.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC02E8E8-1BC7-4BDE-87F2-9E50D2280E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8918B1BA-93BF-4F51-BD8F-F00DDD7D345F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3328,9 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E32EBF-EFFD-40AC-8315-37C30FB98DF3}">
   <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -3594,7 +3592,7 @@
         <v>284</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>294</v>
@@ -3711,7 +3709,7 @@
         <v>285</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>294</v>
@@ -3750,7 +3748,7 @@
         <v>285</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>294</v>
@@ -3789,7 +3787,7 @@
         <v>285</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>294</v>
@@ -3828,7 +3826,7 @@
         <v>285</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>294</v>
@@ -3867,7 +3865,7 @@
         <v>285</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>294</v>
@@ -3906,7 +3904,7 @@
         <v>285</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>294</v>
@@ -3945,7 +3943,7 @@
         <v>285</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>294</v>
@@ -3984,7 +3982,7 @@
         <v>285</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>294</v>
@@ -4023,7 +4021,7 @@
         <v>285</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>294</v>
@@ -4062,7 +4060,7 @@
         <v>285</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>294</v>
@@ -4101,7 +4099,7 @@
         <v>285</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>294</v>
@@ -4140,7 +4138,7 @@
         <v>285</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>294</v>
@@ -4179,7 +4177,7 @@
         <v>285</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>294</v>
@@ -4218,7 +4216,7 @@
         <v>285</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>294</v>
@@ -4257,7 +4255,7 @@
         <v>285</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>294</v>
@@ -4296,7 +4294,7 @@
         <v>285</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>294</v>
@@ -4335,7 +4333,7 @@
         <v>285</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>294</v>
@@ -4374,7 +4372,7 @@
         <v>285</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>294</v>
@@ -4413,7 +4411,7 @@
         <v>285</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>294</v>
@@ -4452,7 +4450,7 @@
         <v>285</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>294</v>
@@ -4491,7 +4489,7 @@
         <v>285</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>294</v>
@@ -4530,7 +4528,7 @@
         <v>285</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>294</v>
@@ -4569,7 +4567,7 @@
         <v>285</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>294</v>
@@ -4608,7 +4606,7 @@
         <v>285</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>294</v>
@@ -4647,7 +4645,7 @@
         <v>285</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>294</v>
@@ -4686,7 +4684,7 @@
         <v>285</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>294</v>
@@ -4725,7 +4723,7 @@
         <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>294</v>
@@ -4764,7 +4762,7 @@
         <v>285</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>294</v>
@@ -4803,7 +4801,7 @@
         <v>285</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>294</v>
@@ -4842,7 +4840,7 @@
         <v>285</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>294</v>
@@ -4881,7 +4879,7 @@
         <v>285</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>294</v>
@@ -11408,13 +11406,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A236C8C1-CF00-4ACB-AFCC-E23B5445E0D9}">
-  <dimension ref="B2:P148"/>
+  <dimension ref="B2:P112"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.625" style="5"/>
     <col min="2" max="2" width="9.25" style="5" bestFit="1" customWidth="1"/>
@@ -11435,7 +11433,7 @@
     <col min="17" max="16384" width="2.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75">
+    <row r="2" spans="2:16">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -11482,7 +11480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75">
+    <row r="3" spans="2:16">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -11529,7 +11527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75">
+    <row r="4" spans="2:16">
       <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
@@ -11576,7 +11574,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75">
+    <row r="5" spans="2:16">
       <c r="B5" s="1" t="s">
         <v>788</v>
       </c>
@@ -11617,7 +11615,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="2" customFormat="1" ht="15.75">
+    <row r="6" spans="2:16" s="2" customFormat="1">
       <c r="B6" s="1" t="s">
         <v>788</v>
       </c>
@@ -11658,7 +11656,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75">
+    <row r="7" spans="2:16">
       <c r="B7" s="1" t="s">
         <v>303</v>
       </c>
@@ -11699,7 +11697,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75">
+    <row r="8" spans="2:16">
       <c r="B8" s="1" t="s">
         <v>303</v>
       </c>
@@ -11740,7 +11738,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75">
+    <row r="9" spans="2:16">
       <c r="B9" s="1" t="s">
         <v>303</v>
       </c>
@@ -11781,7 +11779,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75">
+    <row r="10" spans="2:16">
       <c r="B10" s="1" t="s">
         <v>303</v>
       </c>
@@ -11822,7 +11820,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75">
+    <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
         <v>303</v>
       </c>
@@ -11863,7 +11861,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75">
+    <row r="12" spans="2:16">
       <c r="B12" s="1" t="s">
         <v>303</v>
       </c>
@@ -11904,7 +11902,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.75">
+    <row r="13" spans="2:16">
       <c r="B13" s="1" t="s">
         <v>303</v>
       </c>
@@ -11945,7 +11943,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.75">
+    <row r="14" spans="2:16">
       <c r="B14" s="1" t="s">
         <v>303</v>
       </c>
@@ -11986,7 +11984,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75">
+    <row r="15" spans="2:16">
       <c r="B15" s="1" t="s">
         <v>303</v>
       </c>
@@ -12027,7 +12025,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75">
+    <row r="16" spans="2:16">
       <c r="B16" s="1" t="s">
         <v>303</v>
       </c>
@@ -12068,7 +12066,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="15.75">
+    <row r="17" spans="2:16">
       <c r="B17" s="1" t="s">
         <v>303</v>
       </c>
@@ -12109,7 +12107,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15.75">
+    <row r="18" spans="2:16">
       <c r="B18" s="1" t="s">
         <v>303</v>
       </c>
@@ -12150,7 +12148,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="15.75">
+    <row r="19" spans="2:16">
       <c r="B19" s="1" t="s">
         <v>303</v>
       </c>
@@ -12191,7 +12189,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15.75">
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>303</v>
       </c>
@@ -12232,7 +12230,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="15.75">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>303</v>
       </c>
@@ -12273,7 +12271,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="15.75">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>303</v>
       </c>
@@ -12314,7 +12312,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="15.75">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>303</v>
       </c>
@@ -12355,7 +12353,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="15.75">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>303</v>
       </c>
@@ -12396,7 +12394,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15.75">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>303</v>
       </c>
@@ -12437,7 +12435,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15.75">
+    <row r="26" spans="2:16">
       <c r="B26" s="1" t="s">
         <v>303</v>
       </c>
@@ -12478,7 +12476,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="15.75">
+    <row r="27" spans="2:16">
       <c r="B27" s="1" t="s">
         <v>303</v>
       </c>
@@ -12519,7 +12517,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="15.75">
+    <row r="28" spans="2:16">
       <c r="B28" s="1" t="s">
         <v>303</v>
       </c>
@@ -12560,7 +12558,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="15.75">
+    <row r="29" spans="2:16">
       <c r="B29" s="1" t="s">
         <v>303</v>
       </c>
@@ -12601,7 +12599,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15.75">
+    <row r="30" spans="2:16">
       <c r="B30" s="1" t="s">
         <v>303</v>
       </c>
@@ -12642,7 +12640,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="15.75">
+    <row r="31" spans="2:16">
       <c r="B31" s="1" t="s">
         <v>303</v>
       </c>
@@ -12683,7 +12681,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="15.75">
+    <row r="32" spans="2:16">
       <c r="B32" s="1" t="s">
         <v>303</v>
       </c>
@@ -12724,7 +12722,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="15.75">
+    <row r="33" spans="2:16">
       <c r="B33" s="1" t="s">
         <v>303</v>
       </c>
@@ -12765,7 +12763,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="15.75">
+    <row r="34" spans="2:16">
       <c r="B34" s="1" t="s">
         <v>303</v>
       </c>
@@ -12806,7 +12804,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15.75">
+    <row r="35" spans="2:16">
       <c r="B35" s="1" t="s">
         <v>303</v>
       </c>
@@ -12847,7 +12845,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15.75">
+    <row r="36" spans="2:16">
       <c r="B36" s="1" t="s">
         <v>303</v>
       </c>
@@ -12888,7 +12886,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="15.75">
+    <row r="37" spans="2:16">
       <c r="B37" s="1" t="s">
         <v>303</v>
       </c>
@@ -12929,7 +12927,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="15.75">
+    <row r="38" spans="2:16">
       <c r="B38" s="1" t="s">
         <v>303</v>
       </c>
@@ -12970,7 +12968,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="15.75">
+    <row r="39" spans="2:16">
       <c r="B39" s="1" t="s">
         <v>303</v>
       </c>
@@ -13011,7 +13009,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="15.75">
+    <row r="40" spans="2:16">
       <c r="B40" s="1" t="s">
         <v>303</v>
       </c>
@@ -13052,7 +13050,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="15.75">
+    <row r="41" spans="2:16">
       <c r="B41" s="1" t="s">
         <v>303</v>
       </c>
@@ -13093,7 +13091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="15.75">
+    <row r="42" spans="2:16">
       <c r="B42" s="1" t="s">
         <v>303</v>
       </c>
@@ -13134,7 +13132,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="15.75">
+    <row r="43" spans="2:16">
       <c r="B43" s="1" t="s">
         <v>303</v>
       </c>
@@ -13175,7 +13173,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="15.75">
+    <row r="44" spans="2:16">
       <c r="B44" s="1" t="s">
         <v>303</v>
       </c>
@@ -13216,7 +13214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="15.75">
+    <row r="45" spans="2:16">
       <c r="B45" s="1" t="s">
         <v>303</v>
       </c>
@@ -13257,7 +13255,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="15.75">
+    <row r="46" spans="2:16">
       <c r="B46" s="1" t="s">
         <v>303</v>
       </c>
@@ -13298,7 +13296,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="15.75">
+    <row r="47" spans="2:16">
       <c r="B47" s="1" t="s">
         <v>303</v>
       </c>
@@ -13339,7 +13337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="15.75">
+    <row r="48" spans="2:16">
       <c r="B48" s="1" t="s">
         <v>303</v>
       </c>
@@ -13380,7 +13378,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="15.75">
+    <row r="49" spans="2:16">
       <c r="B49" s="1" t="s">
         <v>303</v>
       </c>
@@ -13421,7 +13419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="15.75">
+    <row r="50" spans="2:16">
       <c r="B50" s="1" t="s">
         <v>303</v>
       </c>
@@ -13462,7 +13460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="15.75">
+    <row r="51" spans="2:16">
       <c r="B51" s="1" t="s">
         <v>303</v>
       </c>
@@ -13503,7 +13501,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="15.75">
+    <row r="52" spans="2:16">
       <c r="B52" s="1" t="s">
         <v>303</v>
       </c>
@@ -13544,7 +13542,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="15.75">
+    <row r="53" spans="2:16">
       <c r="B53" s="1" t="s">
         <v>303</v>
       </c>
@@ -13585,7 +13583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="15.75">
+    <row r="54" spans="2:16">
       <c r="B54" s="1" t="s">
         <v>303</v>
       </c>
@@ -13626,7 +13624,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="15.75">
+    <row r="55" spans="2:16">
       <c r="B55" s="1" t="s">
         <v>303</v>
       </c>
@@ -13667,7 +13665,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="15.75">
+    <row r="56" spans="2:16">
       <c r="B56" s="1" t="s">
         <v>303</v>
       </c>
@@ -13708,7 +13706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="15.75">
+    <row r="57" spans="2:16">
       <c r="B57" s="1" t="s">
         <v>303</v>
       </c>
@@ -13749,7 +13747,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="15.75">
+    <row r="58" spans="2:16">
       <c r="B58" s="1" t="s">
         <v>303</v>
       </c>
@@ -13790,7 +13788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="15.75">
+    <row r="59" spans="2:16">
       <c r="B59" s="1" t="s">
         <v>303</v>
       </c>
@@ -13831,7 +13829,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="15.75">
+    <row r="60" spans="2:16">
       <c r="B60" s="1" t="s">
         <v>303</v>
       </c>
@@ -13872,7 +13870,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="15.75">
+    <row r="61" spans="2:16">
       <c r="B61" s="1" t="s">
         <v>303</v>
       </c>
@@ -13913,7 +13911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="15.75">
+    <row r="62" spans="2:16">
       <c r="B62" s="1" t="s">
         <v>303</v>
       </c>
@@ -13954,7 +13952,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="15.75">
+    <row r="63" spans="2:16">
       <c r="B63" s="1" t="s">
         <v>303</v>
       </c>
@@ -13995,7 +13993,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="15.75">
+    <row r="64" spans="2:16">
       <c r="B64" s="1" t="s">
         <v>303</v>
       </c>
@@ -14036,7 +14034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="15.75">
+    <row r="65" spans="2:16">
       <c r="B65" s="1" t="s">
         <v>303</v>
       </c>
@@ -14077,7 +14075,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="15.75">
+    <row r="66" spans="2:16">
       <c r="B66" s="1" t="s">
         <v>303</v>
       </c>
@@ -14118,7 +14116,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="2:16" ht="15.75">
+    <row r="67" spans="2:16">
       <c r="B67" s="1" t="s">
         <v>303</v>
       </c>
@@ -14159,7 +14157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:16" ht="15.75">
+    <row r="68" spans="2:16">
       <c r="B68" s="1" t="s">
         <v>303</v>
       </c>
@@ -14200,7 +14198,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="2:16" ht="15.75">
+    <row r="69" spans="2:16">
       <c r="B69" s="1" t="s">
         <v>303</v>
       </c>
@@ -14241,7 +14239,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="2:16" ht="15.75">
+    <row r="70" spans="2:16">
       <c r="B70" s="1" t="s">
         <v>303</v>
       </c>
@@ -14282,7 +14280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="2:16" ht="15.75">
+    <row r="71" spans="2:16">
       <c r="B71" s="1" t="s">
         <v>303</v>
       </c>
@@ -14323,7 +14321,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="2:16" ht="15.75">
+    <row r="72" spans="2:16">
       <c r="B72" s="1" t="s">
         <v>303</v>
       </c>
@@ -14364,7 +14362,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="2:16" ht="15.75">
+    <row r="73" spans="2:16">
       <c r="B73" s="1" t="s">
         <v>303</v>
       </c>
@@ -14405,7 +14403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="2:16" ht="15.75">
+    <row r="74" spans="2:16">
       <c r="B74" s="1" t="s">
         <v>303</v>
       </c>
@@ -14446,7 +14444,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="2:16" ht="15.75">
+    <row r="75" spans="2:16">
       <c r="B75" s="1" t="s">
         <v>303</v>
       </c>
@@ -14487,7 +14485,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="15.75">
+    <row r="76" spans="2:16">
       <c r="B76" s="1" t="s">
         <v>303</v>
       </c>
@@ -14528,7 +14526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="2:16" ht="15.75">
+    <row r="77" spans="2:16">
       <c r="B77" s="1" t="s">
         <v>303</v>
       </c>
@@ -14569,7 +14567,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="2:16" ht="15.75">
+    <row r="78" spans="2:16">
       <c r="B78" s="1" t="s">
         <v>303</v>
       </c>
@@ -14610,7 +14608,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="2:16" ht="15.75">
+    <row r="79" spans="2:16">
       <c r="B79" s="1" t="s">
         <v>303</v>
       </c>
@@ -14651,7 +14649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="2:16" ht="15.75">
+    <row r="80" spans="2:16">
       <c r="B80" s="1" t="s">
         <v>303</v>
       </c>
@@ -14692,7 +14690,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="2:16" ht="15.75">
+    <row r="81" spans="2:16">
       <c r="B81" s="1" t="s">
         <v>303</v>
       </c>
@@ -14733,7 +14731,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="2:16" ht="15.75">
+    <row r="82" spans="2:16">
       <c r="B82" s="1" t="s">
         <v>303</v>
       </c>
@@ -14774,7 +14772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="2:16" ht="15.75">
+    <row r="83" spans="2:16">
       <c r="B83" s="1" t="s">
         <v>303</v>
       </c>
@@ -14815,7 +14813,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="2:16" ht="15.75">
+    <row r="84" spans="2:16">
       <c r="B84" s="1" t="s">
         <v>303</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="85" spans="2:16" ht="15.75">
+    <row r="85" spans="2:16">
       <c r="B85" s="1" t="s">
         <v>303</v>
       </c>
@@ -14897,7 +14895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:16" ht="15.75">
+    <row r="86" spans="2:16">
       <c r="B86" s="1" t="s">
         <v>303</v>
       </c>
@@ -14938,7 +14936,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="2:16" ht="15.75">
+    <row r="87" spans="2:16">
       <c r="B87" s="1" t="s">
         <v>303</v>
       </c>
@@ -14979,7 +14977,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="2:16" ht="15.75">
+    <row r="88" spans="2:16">
       <c r="B88" s="1" t="s">
         <v>303</v>
       </c>
@@ -15020,7 +15018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="2:16" ht="15.75">
+    <row r="89" spans="2:16">
       <c r="B89" s="1" t="s">
         <v>303</v>
       </c>
@@ -15061,7 +15059,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:16" ht="15.75">
+    <row r="90" spans="2:16">
       <c r="B90" s="1" t="s">
         <v>303</v>
       </c>
@@ -15102,7 +15100,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="91" spans="2:16" ht="15.75">
+    <row r="91" spans="2:16">
       <c r="B91" s="1" t="s">
         <v>303</v>
       </c>
@@ -15143,7 +15141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="2:16" ht="15.75">
+    <row r="92" spans="2:16">
       <c r="B92" s="1" t="s">
         <v>303</v>
       </c>
@@ -15184,7 +15182,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="2:16" ht="15.75">
+    <row r="93" spans="2:16">
       <c r="B93" s="1" t="s">
         <v>303</v>
       </c>
@@ -15225,7 +15223,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="94" spans="2:16" ht="15.75">
+    <row r="94" spans="2:16">
       <c r="B94" s="1" t="s">
         <v>303</v>
       </c>
@@ -15266,7 +15264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="2:16" ht="15.75">
+    <row r="95" spans="2:16">
       <c r="B95" s="1" t="s">
         <v>303</v>
       </c>
@@ -15307,7 +15305,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="96" spans="2:16" ht="15.75">
+    <row r="96" spans="2:16">
       <c r="B96" s="1" t="s">
         <v>303</v>
       </c>
@@ -15348,7 +15346,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="2:16" ht="15.75">
+    <row r="97" spans="2:16">
       <c r="B97" s="1" t="s">
         <v>303</v>
       </c>
@@ -15389,7 +15387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:16" ht="15.75">
+    <row r="98" spans="2:16">
       <c r="B98" s="1" t="s">
         <v>303</v>
       </c>
@@ -15430,7 +15428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="2:16" ht="15.75">
+    <row r="99" spans="2:16">
       <c r="B99" s="1" t="s">
         <v>303</v>
       </c>
@@ -15471,7 +15469,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="2:16" ht="15.75">
+    <row r="100" spans="2:16">
       <c r="B100" s="1" t="s">
         <v>303</v>
       </c>
@@ -15512,7 +15510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="2:16" ht="15.75">
+    <row r="101" spans="2:16">
       <c r="B101" s="1" t="s">
         <v>303</v>
       </c>
@@ -15553,7 +15551,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="2:16" ht="15.75">
+    <row r="102" spans="2:16">
       <c r="B102" s="1" t="s">
         <v>303</v>
       </c>
@@ -15594,7 +15592,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="2:16" ht="15.75">
+    <row r="103" spans="2:16">
       <c r="B103" s="1" t="s">
         <v>303</v>
       </c>
@@ -15635,7 +15633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="2:16" ht="15.75">
+    <row r="104" spans="2:16">
       <c r="B104" s="1" t="s">
         <v>303</v>
       </c>
@@ -15676,7 +15674,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="105" spans="2:16" ht="15.75">
+    <row r="105" spans="2:16">
       <c r="B105" s="1" t="s">
         <v>303</v>
       </c>
@@ -15717,7 +15715,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" spans="2:16" ht="15.75">
+    <row r="106" spans="2:16">
       <c r="B106" s="1" t="s">
         <v>303</v>
       </c>
@@ -15758,7 +15756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:16" ht="15.75">
+    <row r="107" spans="2:16">
       <c r="B107" s="1" t="s">
         <v>303</v>
       </c>
@@ -15799,7 +15797,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="2:16" ht="15.75">
+    <row r="108" spans="2:16">
       <c r="B108" s="1" t="s">
         <v>303</v>
       </c>
@@ -15840,7 +15838,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="2:16" ht="15.75">
+    <row r="109" spans="2:16">
       <c r="B109" s="1" t="s">
         <v>303</v>
       </c>
@@ -15881,7 +15879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="2:16" ht="15.75">
+    <row r="110" spans="2:16">
       <c r="B110" s="1" t="s">
         <v>303</v>
       </c>
@@ -15922,7 +15920,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="2:16" ht="15.75">
+    <row r="111" spans="2:16">
       <c r="B111" s="1" t="s">
         <v>303</v>
       </c>
@@ -15963,7 +15961,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="2:16" ht="15.75">
+    <row r="112" spans="2:16">
       <c r="B112" s="1" t="s">
         <v>303</v>
       </c>
@@ -16004,42 +16002,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" ht="15.75"/>
-    <row r="114" ht="15.75"/>
-    <row r="115" ht="15.75"/>
-    <row r="116" ht="15.75"/>
-    <row r="117" ht="15.75"/>
-    <row r="118" ht="15.75"/>
-    <row r="119" ht="15.75"/>
-    <row r="120" ht="15.75"/>
-    <row r="121" ht="15.75"/>
-    <row r="122" ht="15.75"/>
-    <row r="123" ht="15.75"/>
-    <row r="124" ht="15.75"/>
-    <row r="125" ht="15.75"/>
-    <row r="126" ht="15.75"/>
-    <row r="127" ht="15.75"/>
-    <row r="128" ht="15.75"/>
-    <row r="129" ht="15.75"/>
-    <row r="130" ht="15.75"/>
-    <row r="131" ht="15.75"/>
-    <row r="132" ht="15.75"/>
-    <row r="133" ht="15.75"/>
-    <row r="134" ht="15.75"/>
-    <row r="135" ht="15.75"/>
-    <row r="136" ht="15.75"/>
-    <row r="137" ht="15.75"/>
-    <row r="138" ht="15.75"/>
-    <row r="139" ht="15.75"/>
-    <row r="140" ht="15.75"/>
-    <row r="141" ht="15.75"/>
-    <row r="142" ht="15.75"/>
-    <row r="143" ht="15.75"/>
-    <row r="144" ht="15.75"/>
-    <row r="145" ht="15.75"/>
-    <row r="146" ht="15.75"/>
-    <row r="147" ht="15.75"/>
-    <row r="148" ht="15.75"/>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/ろうきんAML_管理ツール設定20250707.xlsx
+++ b/Documents/ろうきんAML_管理ツール設定20250707.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE4B5C-88D2-4661-8F60-DF8B98913284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB31F67-EC42-4B06-9F46-E6635DB20849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1320" windowWidth="20220" windowHeight="13200" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="1095" windowWidth="20220" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOデータ" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="9.個人・金庫事務用データ読込" sheetId="16" r:id="rId15"/>
     <sheet name="10.団体・原本仕分データ読込" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4533" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4535" uniqueCount="816">
   <si>
     <t>file_id</t>
   </si>
@@ -2983,6 +2983,57 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>work_tel</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お勤め先電話番号</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お勤め先名_または学校名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>tx_othr_txt</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>取引目的_その他テキスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>rep_natname</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>本店所在国国籍</t>
+    <rPh sb="5" eb="7">
+      <t>コクセキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>代表者の変更有無</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>rep_chg</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bpo_persona_cd</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3395,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E32EBF-EFFD-40AC-8315-37C30FB98DF3}">
   <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -4074,7 +4125,7 @@
         <v>323</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>324</v>
+        <v>815</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>325</v>
@@ -16707,7 +16758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECC3980-7F7A-408B-847E-7DF1BC12D7AC}">
   <dimension ref="B2:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -17088,7 +17139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEBC9A9-05C8-4E06-8620-F0C1FECC81B7}">
   <dimension ref="B2:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:E75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -18743,7 +18796,7 @@
         <v>202</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>203</v>
+        <v>806</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6">
@@ -18818,10 +18871,10 @@
         <v>41</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>206</v>
+        <v>804</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>207</v>
+        <v>805</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6">
@@ -19282,14 +19335,14 @@
     </row>
     <row r="57" spans="2:16">
       <c r="B57" s="6"/>
-      <c r="C57" s="6">
-        <v>53</v>
+      <c r="C57" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>230</v>
+        <v>808</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>231</v>
+        <v>809</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6">
@@ -20070,8 +20123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E06C052-D360-4153-B09A-3DC486CF5AB3}">
   <dimension ref="B2:P112"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:P112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
@@ -20998,14 +21051,14 @@
         <v>454</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>455</v>
+        <v>811</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H24" s="3">
-        <v>2</v>
+      <c r="H24" s="3" t="s">
+        <v>812</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -22133,10 +22186,10 @@
         <v>429</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>538</v>
+        <v>814</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>539</v>
+        <v>813</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
@@ -22369,7 +22422,7 @@
         <v>447</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>555</v>
+        <v>810</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>556</v>
